--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
+++ b/Logging_GAVLEBORGS_LAN/Logging_BOLLNAS/Översikt BOLLNÄS.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45114</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45120</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45123</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45132</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45138</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45138</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
